--- a/src/test/Resources/excel/testdata.xlsx
+++ b/src/test/Resources/excel/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skadaiahnamath\eclipse-workspace\POM_SELENIUM\src\test\Resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skadaiahnamath\Documents\localRepo\POM_SELENIUM\src\test\Resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD41383-D095-4574-B007-2903988940E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C73CCDE-17C9-4424-862D-FD59E9798DB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>pwd</t>
   </si>
   <si>
-    <t>sushanth.uv@gmail.com</t>
-  </si>
-  <si>
     <t>aditI@123</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>sushanth.math@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FC949B-5E08-4D90-8D90-D1FBEF2E344D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,10 +469,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -491,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8824DE-90F3-42D2-8020-C90DB6B4E6E7}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -502,7 +502,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -510,10 +510,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
